--- a/Milestones-BOM-Template.xlsx
+++ b/Milestones-BOM-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/KickJr/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3201FA0-ADCE-B048-B7EC-E844C06ED99E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer</t>
+    <t>Design Name -- Revision Code / Designer or Organization Name</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
